--- a/downloaded_files/EECS203_Tutorial-35303.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35303.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,15 +145,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdel Naby Darwish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو سامح لبيب عبود الفيومى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr sameh labib</x:t>
   </x:si>
   <x:si>
     <x:t>1230225</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1140,7 +1131,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6656410069</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1172,7 +1163,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1204,7 +1195,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1236,7 +1227,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1296,11 +1287,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1323,14 +1312,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45909.4416767014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1358,11 +1349,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.6746290162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1379,36 +1368,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s"/>
-      <x:c r="E23" s="3">
-        <x:v>45907.6746290162</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35303.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35303.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -205,12 +205,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Ramy Essam El Din Abd El Aziz Abd El Haa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +320,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +620,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1195,7 +1189,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45928.8568289699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,36 +1332,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s"/>
-      <x:c r="E22" s="3">
-        <x:v>45907.6746290162</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35303.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35303.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,12 @@
   </x:si>
   <x:si>
     <x:t>Abd Elrahman Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1230346</x:t>
@@ -320,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -620,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1025,11 +1031,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45914.411008912</x:v>
+        <x:v>45907.670731794</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1052,16 +1056,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4108064815</x:v>
+        <x:v>45914.411008912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1084,16 +1088,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45914.4108064815</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1116,16 +1120,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1148,16 +1152,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1180,16 +1184,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.8568289699</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1212,16 +1216,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45928.8568289699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1244,16 +1248,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1276,14 +1280,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1311,11 +1317,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1332,6 +1336,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45909.4416767014</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35303.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35303.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -187,6 +187,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1289,7 +1298,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45937.3412021991</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1317,9 +1326,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,16 +1353,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1368,6 +1377,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45909.4416767014</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35303.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35303.xlsx
@@ -108,7 +108,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1230055</x:t>
@@ -117,7 +117,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>4240026</x:t>
@@ -644,7 +644,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.030625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
